--- a/data/Oldfield et al. T3cDM biomarker dataset.xlsx
+++ b/data/Oldfield et al. T3cDM biomarker dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Documents\Research\Reports+Presentations\Manuscripts\Adiponectin IL-1Ra\NPJ Submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Documents\Research\Sample Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16557,7 +16557,7 @@
   <dimension ref="A1:BL179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17092,6 +17092,9 @@
       <c r="P6">
         <v>191.25</v>
       </c>
+      <c r="Q6" s="1">
+        <v>167.05</v>
+      </c>
       <c r="R6">
         <v>19.5</v>
       </c>
@@ -17235,6 +17238,9 @@
       <c r="P8">
         <v>570</v>
       </c>
+      <c r="Q8" s="1">
+        <v>255.12</v>
+      </c>
       <c r="R8">
         <v>32.5</v>
       </c>
@@ -17650,6 +17656,9 @@
       <c r="P14">
         <v>75</v>
       </c>
+      <c r="Q14" s="1">
+        <v>193.03</v>
+      </c>
       <c r="R14">
         <v>3.6</v>
       </c>
@@ -18735,6 +18744,9 @@
       <c r="J27" s="1"/>
       <c r="P27">
         <v>206</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>685.5</v>
       </c>
       <c r="R27">
         <v>11.41</v>
